--- a/TradingModel_OpenPositionWatching.xlsx
+++ b/TradingModel_OpenPositionWatching.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ray\Documents\Python\TradingModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayWu\OneDrive - AAEON Technology\_OLD\Documents\Python\TradingModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_5568A3F6C7456FAD6618B186BECB626877E775CD" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{614ED63B-2AC5-4799-823C-E40F2A905F91}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Previous_Platform_High</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,12 +39,24 @@
   </si>
   <si>
     <t>Stock_Id</t>
+  </si>
+  <si>
+    <t>大量成交區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量成交區_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量成交區_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,11 +421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -421,9 +434,11 @@
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -439,8 +454,17 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -454,130 +478,147 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>27.3</v>
+        <v>29.35</v>
       </c>
       <c r="F2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3141</v>
+        <v>3035</v>
       </c>
       <c r="C3">
-        <v>185</v>
+        <v>121.5</v>
       </c>
       <c r="D3">
-        <v>127</v>
+        <v>86.7</v>
       </c>
       <c r="E3">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="F3">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3189</v>
+        <v>3141</v>
       </c>
       <c r="C4">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="D4">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="E4">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="F4">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4739</v>
+        <v>3189</v>
       </c>
       <c r="C5">
-        <v>131.5</v>
+        <v>229</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="E5">
-        <v>131.5</v>
+        <v>248</v>
       </c>
       <c r="F5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6170</v>
+        <v>3504</v>
       </c>
       <c r="C6">
-        <v>47.15</v>
+        <v>121</v>
       </c>
       <c r="D6">
-        <v>37.9</v>
+        <v>99.9</v>
       </c>
       <c r="E6">
-        <v>47.15</v>
+        <v>137</v>
       </c>
       <c r="F6">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6509</v>
+        <v>6170</v>
       </c>
       <c r="C7">
-        <v>67.599999999999994</v>
+        <v>47.15</v>
       </c>
       <c r="D7">
-        <v>50.6</v>
+        <v>33.9</v>
       </c>
       <c r="E7">
-        <v>67.599999999999994</v>
+        <v>51.7</v>
       </c>
       <c r="F7">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8155</v>
+        <v>6411</v>
       </c>
       <c r="C8">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="D8">
-        <v>134</v>
+        <v>190.5</v>
       </c>
       <c r="E8">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="F8">
-        <v>134</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3033</v>
+      </c>
+      <c r="C9">
+        <v>29.4</v>
+      </c>
+      <c r="D9">
+        <v>25.7</v>
+      </c>
+      <c r="E9">
+        <v>29.4</v>
+      </c>
+      <c r="F9">
+        <v>25.7</v>
       </c>
     </row>
   </sheetData>

--- a/TradingModel_OpenPositionWatching.xlsx
+++ b/TradingModel_OpenPositionWatching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayWu\OneDrive - AAEON Technology\_OLD\Documents\Python\TradingModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaeon365-my.sharepoint.com/personal/raywu_aaeon_com_tw/Documents/_OLD/Documents/Python/TradingModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_5568A3F6C7456FAD6618B186BECB626877E775CD" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{614ED63B-2AC5-4799-823C-E40F2A905F91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D8F70ED2-BD1C-4E29-871A-E650149FACE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14352" windowHeight="6804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,37 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Previous_Platform_High</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous_Platform_Low</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous_N_High</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous_N_Low</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Stock_Id</t>
   </si>
   <si>
+    <t>PositionSize</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>EachCost</t>
+  </si>
+  <si>
+    <t>Previous_Platform_High</t>
+  </si>
+  <si>
+    <t>Previous_Platform_Low</t>
+  </si>
+  <si>
+    <t>Previous_N_High</t>
+  </si>
+  <si>
+    <t>Previous_N_Low</t>
+  </si>
+  <si>
     <t>大量成交區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大量成交區_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大量成交區_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,49 +424,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -472,158 +475,530 @@
         <v>1711</v>
       </c>
       <c r="C2">
+        <v>220</v>
+      </c>
+      <c r="D2">
+        <v>27.15</v>
+      </c>
+      <c r="E2">
+        <v>5973</v>
+      </c>
+      <c r="F2">
         <v>27.3</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>24</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>29.35</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>27.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3035</v>
+        <v>2436</v>
       </c>
       <c r="C3">
-        <v>121.5</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>86.7</v>
+        <v>99.3</v>
       </c>
       <c r="E3">
-        <v>176</v>
+        <v>4965</v>
       </c>
       <c r="F3">
-        <v>163</v>
+        <v>88.9</v>
+      </c>
+      <c r="G3">
+        <v>66.8</v>
+      </c>
+      <c r="H3">
+        <v>88.9</v>
+      </c>
+      <c r="I3">
+        <v>66.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3141</v>
+        <v>3033</v>
       </c>
       <c r="C4">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>32.5</v>
       </c>
       <c r="E4">
-        <v>220</v>
+        <v>5850</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>29.4</v>
+      </c>
+      <c r="G4">
+        <v>25.7</v>
+      </c>
+      <c r="H4">
+        <v>29.4</v>
+      </c>
+      <c r="I4">
+        <v>25.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3189</v>
+        <v>3035</v>
       </c>
       <c r="C5">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E5">
-        <v>248</v>
+        <v>5920</v>
       </c>
       <c r="F5">
-        <v>233</v>
+        <v>121.5</v>
+      </c>
+      <c r="G5">
+        <v>86.7</v>
+      </c>
+      <c r="H5">
+        <v>176</v>
+      </c>
+      <c r="I5">
+        <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3504</v>
+        <v>3141</v>
       </c>
       <c r="C6">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>99.9</v>
+        <v>218.5</v>
       </c>
       <c r="E6">
-        <v>137</v>
+        <v>5899.5</v>
       </c>
       <c r="F6">
-        <v>130</v>
+        <v>185</v>
+      </c>
+      <c r="G6">
+        <v>127</v>
+      </c>
+      <c r="H6">
+        <v>220</v>
+      </c>
+      <c r="I6">
+        <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6170</v>
+        <v>3189</v>
       </c>
       <c r="C7">
-        <v>47.15</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>33.9</v>
+        <v>235</v>
       </c>
       <c r="E7">
-        <v>51.7</v>
+        <v>6345</v>
       </c>
       <c r="F7">
-        <v>51.4</v>
+        <v>229</v>
+      </c>
+      <c r="G7">
+        <v>191</v>
+      </c>
+      <c r="H7">
+        <v>248</v>
+      </c>
+      <c r="I7">
+        <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>3588</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>155</v>
+      </c>
+      <c r="E8">
+        <v>5425</v>
+      </c>
+      <c r="F8">
+        <v>142.5</v>
+      </c>
+      <c r="G8">
+        <v>111</v>
+      </c>
+      <c r="H8">
+        <v>142.5</v>
+      </c>
+      <c r="I8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6104</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>170</v>
+      </c>
+      <c r="E9">
+        <v>6120</v>
+      </c>
+      <c r="F9">
+        <v>155</v>
+      </c>
+      <c r="G9">
+        <v>113.5</v>
+      </c>
+      <c r="H9">
+        <v>155</v>
+      </c>
+      <c r="I9">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>6411</v>
       </c>
-      <c r="C8">
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>230</v>
+      </c>
+      <c r="E10">
+        <v>5980</v>
+      </c>
+      <c r="F10">
         <v>227</v>
       </c>
-      <c r="D8">
+      <c r="G10">
         <v>190.5</v>
       </c>
-      <c r="E8">
+      <c r="H10">
         <v>227</v>
       </c>
-      <c r="F8">
+      <c r="I10">
         <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>3033</v>
-      </c>
-      <c r="C9">
-        <v>29.4</v>
-      </c>
-      <c r="D9">
-        <v>25.7</v>
-      </c>
-      <c r="E9">
-        <v>29.4</v>
-      </c>
-      <c r="F9">
-        <v>25.7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
+    <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <xsd:import namespace="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a05e4abd-8455-4909-9372-067b8b6e3dbc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCB45FAA-C7B8-460C-8909-353D5DB6B841}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{800E3977-04D6-441F-B515-43C1209344F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB6CFC54-CDBF-4A07-B3F2-16957552496F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TradingModel_OpenPositionWatching.xlsx
+++ b/TradingModel_OpenPositionWatching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayWu\OneDrive - AAEON Technology\_OLD\Documents\Python\TradingModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_5568A3F6C7456FAD6618B186BECB626877E775CD" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{614ED63B-2AC5-4799-823C-E40F2A905F91}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{D8F70ED2-BD1C-4E29-871A-E650149FACE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6C1F1512-540D-450B-A778-467BFD0BD9B9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15024" windowHeight="6408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14352" windowHeight="6804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,37 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Previous_Platform_High</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous_Platform_Low</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous_N_High</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Previous_N_Low</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Stock_Id</t>
   </si>
   <si>
+    <t>PositionSize</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>EachCost</t>
+  </si>
+  <si>
+    <t>Previous_Platform_High</t>
+  </si>
+  <si>
+    <t>Previous_Platform_Low</t>
+  </si>
+  <si>
+    <t>Previous_N_High</t>
+  </si>
+  <si>
+    <t>Previous_N_Low</t>
+  </si>
+  <si>
     <t>大量成交區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大量成交區_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大量成交區_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,49 +424,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -472,158 +475,530 @@
         <v>1711</v>
       </c>
       <c r="C2">
+        <v>220</v>
+      </c>
+      <c r="D2">
+        <v>27.15</v>
+      </c>
+      <c r="E2">
+        <v>5973</v>
+      </c>
+      <c r="F2">
         <v>27.3</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>24</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>29.35</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>27.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3035</v>
+        <v>2436</v>
       </c>
       <c r="C3">
-        <v>121.5</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>86.7</v>
+        <v>99.3</v>
       </c>
       <c r="E3">
-        <v>176</v>
+        <v>4965</v>
       </c>
       <c r="F3">
-        <v>163</v>
+        <v>88.9</v>
+      </c>
+      <c r="G3">
+        <v>66.8</v>
+      </c>
+      <c r="H3">
+        <v>88.9</v>
+      </c>
+      <c r="I3">
+        <v>66.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3141</v>
+        <v>3033</v>
       </c>
       <c r="C4">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>32.5</v>
       </c>
       <c r="E4">
-        <v>220</v>
+        <v>5850</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>29.4</v>
+      </c>
+      <c r="G4">
+        <v>25.7</v>
+      </c>
+      <c r="H4">
+        <v>29.4</v>
+      </c>
+      <c r="I4">
+        <v>25.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3189</v>
+        <v>3035</v>
       </c>
       <c r="C5">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E5">
-        <v>248</v>
+        <v>5920</v>
       </c>
       <c r="F5">
-        <v>233</v>
+        <v>121.5</v>
+      </c>
+      <c r="G5">
+        <v>86.7</v>
+      </c>
+      <c r="H5">
+        <v>176</v>
+      </c>
+      <c r="I5">
+        <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3504</v>
+        <v>3141</v>
       </c>
       <c r="C6">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>99.9</v>
+        <v>218.5</v>
       </c>
       <c r="E6">
-        <v>137</v>
+        <v>5899.5</v>
       </c>
       <c r="F6">
-        <v>130</v>
+        <v>185</v>
+      </c>
+      <c r="G6">
+        <v>127</v>
+      </c>
+      <c r="H6">
+        <v>237.5</v>
+      </c>
+      <c r="I6">
+        <v>213.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6170</v>
+        <v>3189</v>
       </c>
       <c r="C7">
-        <v>47.15</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>33.9</v>
+        <v>235</v>
       </c>
       <c r="E7">
-        <v>51.7</v>
+        <v>6345</v>
       </c>
       <c r="F7">
-        <v>51.4</v>
+        <v>229</v>
+      </c>
+      <c r="G7">
+        <v>191</v>
+      </c>
+      <c r="H7">
+        <v>248</v>
+      </c>
+      <c r="I7">
+        <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>3588</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>155</v>
+      </c>
+      <c r="E8">
+        <v>5425</v>
+      </c>
+      <c r="F8">
+        <v>142.5</v>
+      </c>
+      <c r="G8">
+        <v>111</v>
+      </c>
+      <c r="H8">
+        <v>142.5</v>
+      </c>
+      <c r="I8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6104</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>170</v>
+      </c>
+      <c r="E9">
+        <v>6120</v>
+      </c>
+      <c r="F9">
+        <v>155</v>
+      </c>
+      <c r="G9">
+        <v>113.5</v>
+      </c>
+      <c r="H9">
+        <v>166.5</v>
+      </c>
+      <c r="I9">
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>6411</v>
       </c>
-      <c r="C8">
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>230</v>
+      </c>
+      <c r="E10">
+        <v>5980</v>
+      </c>
+      <c r="F10">
         <v>227</v>
       </c>
-      <c r="D8">
+      <c r="G10">
         <v>190.5</v>
       </c>
-      <c r="E8">
+      <c r="H10">
         <v>227</v>
       </c>
-      <c r="F8">
+      <c r="I10">
         <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>3033</v>
-      </c>
-      <c r="C9">
-        <v>29.4</v>
-      </c>
-      <c r="D9">
-        <v>25.7</v>
-      </c>
-      <c r="E9">
-        <v>29.4</v>
-      </c>
-      <c r="F9">
-        <v>25.7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
+    <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <xsd:import namespace="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a05e4abd-8455-4909-9372-067b8b6e3dbc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB6CFC54-CDBF-4A07-B3F2-16957552496F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{800E3977-04D6-441F-B515-43C1209344F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCB45FAA-C7B8-460C-8909-353D5DB6B841}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TradingModel_OpenPositionWatching.xlsx
+++ b/TradingModel_OpenPositionWatching.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayWu\OneDrive - AAEON Technology\_OLD\Documents\Python\TradingModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaeon365-my.sharepoint.com/personal/raywu_aaeon_com_tw/Documents/_OLD/Documents/Python/TradingModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{D8F70ED2-BD1C-4E29-871A-E650149FACE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6C1F1512-540D-450B-A778-467BFD0BD9B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{027A0A27-F260-4D45-95B2-C69F452D871A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14352" windowHeight="6804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15504" windowHeight="5868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,16 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -472,28 +478,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1711</v>
+        <v>2436</v>
       </c>
       <c r="C2">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>27.15</v>
+        <v>204.8</v>
       </c>
       <c r="E2">
-        <v>5973</v>
+        <v>6020</v>
       </c>
       <c r="F2">
-        <v>27.3</v>
+        <v>88.9</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>66.8</v>
       </c>
       <c r="H2">
-        <v>29.35</v>
+        <v>88.9</v>
       </c>
       <c r="I2">
-        <v>27.5</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -501,28 +507,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2436</v>
+        <v>3035</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>99.3</v>
+        <v>185</v>
       </c>
       <c r="E3">
-        <v>4965</v>
+        <v>5920</v>
       </c>
       <c r="F3">
-        <v>88.9</v>
+        <v>121.5</v>
       </c>
       <c r="G3">
-        <v>66.8</v>
+        <v>86.7</v>
       </c>
       <c r="H3">
-        <v>88.9</v>
+        <v>176</v>
       </c>
       <c r="I3">
-        <v>66.8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -530,28 +536,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3033</v>
+        <v>3122</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>32.5</v>
+        <v>131</v>
       </c>
       <c r="E4">
-        <v>5850</v>
+        <v>5865</v>
       </c>
       <c r="F4">
-        <v>29.4</v>
+        <v>61.7</v>
       </c>
       <c r="G4">
-        <v>25.7</v>
+        <v>42.45</v>
       </c>
       <c r="H4">
-        <v>29.4</v>
+        <v>61.7</v>
       </c>
       <c r="I4">
-        <v>25.7</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -559,28 +565,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3035</v>
+        <v>3141</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5">
+        <v>218.5</v>
+      </c>
+      <c r="E5">
+        <v>5899.5</v>
+      </c>
+      <c r="F5">
         <v>185</v>
       </c>
-      <c r="E5">
-        <v>5920</v>
-      </c>
-      <c r="F5">
-        <v>121.5</v>
-      </c>
       <c r="G5">
-        <v>86.7</v>
+        <v>127</v>
       </c>
       <c r="H5">
-        <v>176</v>
+        <v>237.5</v>
       </c>
       <c r="I5">
-        <v>163</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -588,28 +594,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3141</v>
+        <v>3588</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>218.5</v>
+        <v>155</v>
       </c>
       <c r="E6">
-        <v>5899.5</v>
+        <v>5425</v>
       </c>
       <c r="F6">
-        <v>185</v>
+        <v>142.5</v>
       </c>
       <c r="G6">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H6">
-        <v>237.5</v>
+        <v>149</v>
       </c>
       <c r="I6">
-        <v>213.5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -617,28 +623,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3189</v>
+        <v>6104</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="E7">
-        <v>6345</v>
+        <v>6120</v>
       </c>
       <c r="F7">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="G7">
-        <v>191</v>
+        <v>113.5</v>
       </c>
       <c r="H7">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="I7">
-        <v>233</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -646,28 +652,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3588</v>
+        <v>6138</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="E8">
-        <v>5425</v>
+        <v>6090</v>
       </c>
       <c r="F8">
-        <v>142.5</v>
+        <v>193</v>
       </c>
       <c r="G8">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="H8">
-        <v>142.5</v>
+        <v>193</v>
       </c>
       <c r="I8">
-        <v>111</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -675,28 +681,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6104</v>
+        <v>6271</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>170</v>
+        <v>302.5</v>
       </c>
       <c r="E9">
-        <v>6120</v>
+        <v>6050</v>
       </c>
       <c r="F9">
-        <v>155</v>
+        <v>279.5</v>
       </c>
       <c r="G9">
-        <v>113.5</v>
+        <v>215.5</v>
       </c>
       <c r="H9">
-        <v>166.5</v>
+        <v>288</v>
       </c>
       <c r="I9">
-        <v>165.5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -716,10 +722,10 @@
         <v>5980</v>
       </c>
       <c r="F10">
-        <v>227</v>
+        <v>222.5</v>
       </c>
       <c r="G10">
-        <v>190.5</v>
+        <v>180</v>
       </c>
       <c r="H10">
         <v>227</v>
@@ -736,21 +742,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
     <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
@@ -959,33 +950,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB6CFC54-CDBF-4A07-B3F2-16957552496F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{800E3977-04D6-441F-B515-43C1209344F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCB45FAA-C7B8-460C-8909-353D5DB6B841}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2F3AF8-6081-4362-AA1B-DE7A6C9A8EAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1001,4 +982,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0F19600-E6EB-4AE8-B4D4-57F1958D25E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D115C495-482F-4B78-A4FF-8E76798657E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>